--- a/views/templates/service.xlsx
+++ b/views/templates/service.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">code</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -226,15 +229,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.25"/>
@@ -259,17 +260,21 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
